--- a/Formative02/Formative02.xlsx
+++ b/Formative02/Formative02.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wp8798rh\OneDrive - MNSCU\GitHub\eprof1\MIS362-01\Formative02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - MNSCU\GitHub\eprof1\MIS362-03_BUSO\Formative02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_C5089F65629FCEBEE634834F5FA033B13652DF75" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B94BCF55-A942-4032-9519-FDFC6301D76E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B010F3DF-2FE0-4BC8-BF39-7915D1B2C882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1224" windowWidth="11760" windowHeight="7932" tabRatio="646" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" tabRatio="646" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-NamedRanges" sheetId="1" r:id="rId1"/>
     <sheet name="2-PMT" sheetId="2" r:id="rId2"/>
     <sheet name="3-Vlookup" sheetId="6" r:id="rId3"/>
-    <sheet name="4-StringParsing" sheetId="7" r:id="rId4"/>
-    <sheet name="5-Charts" sheetId="9" r:id="rId5"/>
+    <sheet name="Xlookup" sheetId="10" r:id="rId4"/>
+    <sheet name="4-StringParsing" sheetId="7" r:id="rId5"/>
+    <sheet name="5-Charts" sheetId="9" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_Order1" hidden="1">0</definedName>
+    <definedName name="Breakeven_point" localSheetId="3">#REF!</definedName>
     <definedName name="Breakeven_point">#REF!</definedName>
+    <definedName name="Company_name" localSheetId="3">#REF!</definedName>
     <definedName name="Company_name">#REF!</definedName>
     <definedName name="DATA_01" hidden="1">#REF!</definedName>
     <definedName name="DATA_02" hidden="1">#REF!</definedName>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Total costs</t>
   </si>
@@ -220,6 +226,12 @@
   </si>
   <si>
     <t>&lt;-- Average GNP</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>&lt;-- enter the formula for cost using Xlookup()</t>
   </si>
 </sst>
 </file>
@@ -324,22 +336,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
   </cellXfs>
@@ -369,10 +379,36 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="NamedRanges"/>
+      <sheetName val="Vlookup"/>
+      <sheetName val="Xlookup"/>
+      <sheetName val="PMT"/>
+      <sheetName val="StringParsing"/>
+      <sheetName val="Charts"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -410,9 +446,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,26 +481,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,26 +516,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -692,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -721,7 +723,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>38</v>
       </c>
@@ -772,10 +774,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5" t="s">
         <v>39</v>
       </c>
@@ -900,7 +902,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -937,8 +939,155 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF99EE0-1C50-477C-B05F-1C21A0819ABE}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.08984375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.08984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="1">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" s="2">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:D6"/>
@@ -953,22 +1102,22 @@
     <col min="5" max="16384" width="7.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -981,229 +1130,174 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="D24" s="15"/>
-      <c r="E24" s="16" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="D24" s="13"/>
+      <c r="E24" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1215,7 +1309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
@@ -1240,15 +1334,15 @@
       <c r="B2">
         <v>1.99</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
